--- a/URS/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
+++ b/URS/DbLayouts/L7-介接外部系統/Ifrs9FacData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA2641-7413-49F7-BC0F-60DCC03D4987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A308854-9B08-4828-A343-A51B6414721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1110,14 +1110,6 @@
     <t>區隔帳冊</t>
   </si>
   <si>
-    <t>MF."AcBookCode"      (等 MF 調整好)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MF."AcSubBookCode"   (等 MF 調整好)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>00A:傳統帳冊                           201:利變年金帳冊</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1382,6 +1374,14 @@
   </si>
   <si>
     <t xml:space="preserve">      AND  WK."CustNo" IS NULL</t>
+  </si>
+  <si>
+    <t>MF."AcBookCode"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF."AcSubBookCode"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3236,10 +3236,10 @@
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -3260,10 +3260,10 @@
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C52181E-9440-4D40-823B-00A9DB68933A}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3487,122 +3487,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3628,507 +3628,507 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="57" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="57" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="57" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="57" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="57" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="57" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="57" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="57" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="57" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
